--- a/biology/Zoologie/Canidia_(insecte)/Canidia_(insecte).xlsx
+++ b/biology/Zoologie/Canidia_(insecte)/Canidia_(insecte).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Canidia est un genre de coléoptères de la famille des Cerambycidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (13 novembre 2023)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (13 novembre 2023) :
 Canidia canescens (Dillon, 1955)
 Canidia chemsaki Wappes &amp; Lingafelter, 2005
 Canidia cincticornis Thomson, 1857 - protonyme
@@ -549,10 +563,12 @@
           <t>Étymologie et systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description originale, l'auteur indique avoir choisi le nom du genre Canidia en référence à la sorcière Canidie sans en décrire la raison[3].
-Le nom valide complet (avec auteur) de ce taxon est Canidia Thomson, 1857[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description originale, l'auteur indique avoir choisi le nom du genre Canidia en référence à la sorcière Canidie sans en décrire la raison.
+Le nom valide complet (avec auteur) de ce taxon est Canidia Thomson, 1857.
 </t>
         </is>
       </c>
@@ -581,7 +597,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>James Thomson, « Diagnose de Cérambycidés nouveaux ou peu connus de ma collection », Archives entomologiques, ou, Recueil contenant des illustrations d'insectes nouveaux ou rares, Paris, Inconnu, vol. 1,‎ 1857, p. 169-194 (OCLC 4241468, lire en ligne)</t>
         </is>
